--- a/teaching/traditional_assets/database/data/spain/spain_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/spain/spain_brokerage_investment_banking.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.2406</v>
+        <v>0.21565</v>
       </c>
       <c r="E2">
-        <v>0.0456</v>
+        <v>-0.08905000000000002</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0002865041467705454</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>67.2</v>
+        <v>48</v>
       </c>
       <c r="L2">
-        <v>0.1573770491803279</v>
+        <v>0.1206333249560191</v>
       </c>
       <c r="M2">
-        <v>29.6372</v>
+        <v>19.8528</v>
       </c>
       <c r="N2">
-        <v>0.03020197696932641</v>
+        <v>0.0203264052421419</v>
       </c>
       <c r="O2">
-        <v>0.4410297619047619</v>
+        <v>0.4136</v>
       </c>
       <c r="P2">
-        <v>29.6372</v>
+        <v>19.8528</v>
       </c>
       <c r="Q2">
-        <v>0.03020197696932641</v>
+        <v>0.0203264052421419</v>
       </c>
       <c r="R2">
-        <v>0.4410297619047619</v>
+        <v>0.4136</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,61 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>530.4</v>
+        <v>1056.4</v>
       </c>
       <c r="V2">
-        <v>0.5405074900642005</v>
+        <v>1.081601310535477</v>
       </c>
       <c r="W2">
-        <v>0.1743191489361702</v>
+        <v>0.1431642494453109</v>
       </c>
       <c r="X2">
-        <v>0.04925575364059988</v>
+        <v>0.03598227611209486</v>
       </c>
       <c r="Y2">
-        <v>0.1250633952955703</v>
+        <v>0.107181973333216</v>
       </c>
       <c r="Z2">
-        <v>-5.337566719583995</v>
+        <v>-2.453144266337855</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04887539085985133</v>
+        <v>0.03568152861580085</v>
       </c>
       <c r="AC2">
-        <v>-0.04887539085985133</v>
+        <v>-0.03568152861580085</v>
       </c>
       <c r="AD2">
-        <v>28.3</v>
+        <v>32.14</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>28.3</v>
+        <v>32.14</v>
       </c>
       <c r="AG2">
-        <v>-502.1</v>
+        <v>-1024.26</v>
       </c>
       <c r="AH2">
-        <v>0.02803090332805072</v>
+        <v>0.0318583719915943</v>
       </c>
       <c r="AI2">
-        <v>0.07119496855345912</v>
+        <v>0.06318810946838629</v>
       </c>
       <c r="AJ2">
-        <v>-1.047787979966611</v>
+        <v>21.53616484440709</v>
       </c>
       <c r="AK2">
-        <v>3.778028592927013</v>
+        <v>1.869906528406601</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-3.08</v>
+        <v>-1.83</v>
       </c>
       <c r="AQ2">
         <v>-0</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0442</v>
+        <v>0.0503</v>
       </c>
       <c r="E3">
-        <v>0.0344</v>
+        <v>0.0379</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,85 +734,82 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.7</v>
+        <v>19.3</v>
       </c>
       <c r="L3">
-        <v>0.1123096446700508</v>
+        <v>0.09984480082772891</v>
       </c>
       <c r="M3">
-        <v>12.383</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.03883035434305426</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.6996045197740114</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>12.383</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.03883035434305426</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.6996045197740114</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>400.4</v>
+        <v>961</v>
       </c>
       <c r="V3">
-        <v>1.255566008153026</v>
+        <v>2.733219567690557</v>
       </c>
       <c r="W3">
-        <v>0.1506382978723404</v>
+        <v>0.1673894189071986</v>
       </c>
       <c r="X3">
-        <v>0.04878181491656301</v>
+        <v>0.035628172419644</v>
       </c>
       <c r="Y3">
-        <v>0.1018564829557774</v>
+        <v>0.1317612464875546</v>
       </c>
       <c r="Z3">
-        <v>-0.7232708732027223</v>
+        <v>-0.640490390987409</v>
       </c>
       <c r="AA3">
         <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.04878181491656301</v>
+        <v>0.03552503595164139</v>
       </c>
       <c r="AC3">
-        <v>-0.04878181491656301</v>
+        <v>-0.03552503595164139</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AG3">
-        <v>-400.4</v>
+        <v>-957.5599999999999</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.009689049121225776</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.02521254763998827</v>
       </c>
       <c r="AJ3">
-        <v>4.912883435582822</v>
+        <v>1.580236319228992</v>
       </c>
       <c r="AK3">
-        <v>1.409362900387188</v>
+        <v>1.161298146890463</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -838,13 +835,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.4370000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="E4">
-        <v>0.0568</v>
+        <v>-0.216</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0005571847507331378</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -856,28 +853,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>49.5</v>
+        <v>28.7</v>
       </c>
       <c r="L4">
-        <v>0.1837416481069042</v>
+        <v>0.1402737047898338</v>
       </c>
       <c r="M4">
-        <v>17.2542</v>
+        <v>19.8528</v>
       </c>
       <c r="N4">
-        <v>0.02604800724637681</v>
+        <v>0.0317593984962406</v>
       </c>
       <c r="O4">
-        <v>0.348569696969697</v>
+        <v>0.6917351916376306</v>
       </c>
       <c r="P4">
-        <v>17.2542</v>
+        <v>19.8528</v>
       </c>
       <c r="Q4">
-        <v>0.02604800724637681</v>
+        <v>0.0317593984962406</v>
       </c>
       <c r="R4">
-        <v>0.348569696969697</v>
+        <v>0.6917351916376306</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -886,61 +883,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>130</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="V4">
-        <v>0.196256038647343</v>
+        <v>0.1526155815069589</v>
       </c>
       <c r="W4">
-        <v>0.198</v>
+        <v>0.1189390799834231</v>
       </c>
       <c r="X4">
-        <v>0.04972969236463676</v>
+        <v>0.03633637980454572</v>
       </c>
       <c r="Y4">
-        <v>0.1482703076353633</v>
+        <v>0.08260270017887739</v>
       </c>
       <c r="Z4">
-        <v>1.953589557650471</v>
+        <v>1.465616045845272</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04896896680313965</v>
+        <v>0.03583802127996031</v>
       </c>
       <c r="AC4">
-        <v>-0.04896896680313965</v>
+        <v>-0.03583802127996031</v>
       </c>
       <c r="AD4">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="AG4">
-        <v>-101.7</v>
+        <v>-66.7</v>
       </c>
       <c r="AH4">
-        <v>0.04097292601708413</v>
+        <v>0.04389721627408993</v>
       </c>
       <c r="AI4">
-        <v>0.1006401137980085</v>
+        <v>0.07710908113917249</v>
       </c>
       <c r="AJ4">
-        <v>-0.1813804173354736</v>
+        <v>-0.1194484240687679</v>
       </c>
       <c r="AK4">
-        <v>-0.6726190476190477</v>
+        <v>-0.2409682080924855</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-3.08</v>
+        <v>-1.83</v>
       </c>
       <c r="AQ4">
         <v>-0</v>
